--- a/SatuSehat/Specs Format FHIR/custom/Organization.xlsx
+++ b/SatuSehat/Specs Format FHIR/custom/Organization.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cia\Coding\Github\Guideline\SatuSehat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cia\Coding\Github\Guideline\SatuSehat\Specs Format FHIR\custom\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -108,14 +108,6 @@
     <t>0..*</t>
   </si>
   <si>
-    <t>identifier.use= "official"
-identifier.system= "code"
-identifier.value= "8888"</t>
-  </si>
-  <si>
-    <t>Kode item terkait yang dipakai di fasyankes</t>
-  </si>
-  <si>
     <t>Organization.active</t>
   </si>
   <si>
@@ -123,12 +115,6 @@
   </si>
   <si>
     <t>0..1</t>
-  </si>
-  <si>
-    <t>active= true</t>
-  </si>
-  <si>
-    <t>Status apakah organisasi terkait masih aktif atau tidak</t>
   </si>
   <si>
     <t>Whether the organization's record is still in active use</t>
@@ -221,31 +207,18 @@
     <t>partOf= "Organization/tch"</t>
   </si>
   <si>
-    <t>Apabila organisasi terkait merupakan sub-group dari induk organisasi, maka lampirkan referensi ID ke induk organisasi</t>
-  </si>
-  <si>
     <t>Organization.contact</t>
   </si>
   <si>
     <t>BackboneElement</t>
   </si>
   <si>
-    <t>narahubung untuk organisasi dengan tujuan tertentu</t>
-  </si>
-  <si>
     <t>Organization.contact.purpose</t>
   </si>
   <si>
-    <t>purpose.coding[x].system= "http=//terminology.hl7.org/CodeSystem/contactentity-purpose.coding[x].type"
-purpose.coding[x].code= "ADMIN"</t>
-  </si>
-  <si>
     <t>Tipe narahubung</t>
   </si>
   <si>
-    <t>http=//terminology.hl7.org/CodeSystem/contactentity-purpose.coding[x].type</t>
-  </si>
-  <si>
     <t>Organization.contact.name</t>
   </si>
   <si>
@@ -253,9 +226,6 @@
   </si>
   <si>
     <t>name= "Emergency"</t>
-  </si>
-  <si>
-    <t>Nama yang terkait dengan narahubung</t>
   </si>
   <si>
     <t>Organization.contact.telecom</t>
@@ -293,6 +263,38 @@
       <t xml:space="preserve"> Notes:
 kolom biru= foreign key ke table resource lainnya</t>
     </r>
+  </si>
+  <si>
+    <t>Dapat diisi dengan informasi terkait kode/nomor internal
+suborganisasi yang dimiliki oleh organisasi induk</t>
+  </si>
+  <si>
+    <t>identifier.use= "official"
+identifier.system= "HOSP_RowId"
+identifier.value= [kode/nomor internal suborganisasi]</t>
+  </si>
+  <si>
+    <t>Status keaktifan data organisasi</t>
+  </si>
+  <si>
+    <t>active= [true | false]</t>
+  </si>
+  <si>
+    <t>Wajib diisi apabila organisasi bagian dari organisasi lain
+(suborganisasi)</t>
+  </si>
+  <si>
+    <t>Kontak organisasi untuk tujuan tertentu (billing, administrasi, HR, dll.)</t>
+  </si>
+  <si>
+    <t>purpose.coding[x].system= "http://terminology.hl7.org/CodeSystem/contactentity-type"
+purpose.coding[x].code= "ADMIN"</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/contactentity-type</t>
+  </si>
+  <si>
+    <t>Nama contact person terkait</t>
   </si>
 </sst>
 </file>
@@ -529,19 +531,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -558,95 +650,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -932,540 +937,546 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.90625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" style="31" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6328125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="6.6328125" style="30" customWidth="1"/>
-    <col min="7" max="7" width="50.36328125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="29.453125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="41.1796875" style="4" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="27" style="4" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" style="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" style="22" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6328125" style="22" customWidth="1"/>
+    <col min="6" max="6" width="6.6328125" style="21" customWidth="1"/>
+    <col min="7" max="7" width="50.36328125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="29.453125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="41.1796875" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="27" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:11" ht="49" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="32"/>
+      <c r="C2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:11" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="36"/>
+      <c r="C3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
     </row>
     <row r="6" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+    </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="34"/>
+      <c r="G7" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="29"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="30"/>
+    </row>
+    <row r="9" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="8">
+        <v>1</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10" s="8">
+        <v>2</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="8">
+        <v>3</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="62" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8">
+        <v>4</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="8">
+        <v>5</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="8">
+        <v>6</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="8">
+        <v>7</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="8">
+        <v>8</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="28">
+        <v>9</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="8">
+        <v>10</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+      <c r="A19" s="8">
+        <v>11</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="K19" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="8">
+        <v>12</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-    </row>
-    <row r="7" spans="1:11" s="13" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="10" t="s">
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="8">
         <v>13</v>
       </c>
-      <c r="I7" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="K7" s="33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="33"/>
-    </row>
-    <row r="9" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="17">
-        <v>1</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="17">
-        <v>2</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="20" t="s">
+      <c r="B21" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="17">
-        <v>3</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" s="18"/>
-      <c r="K11" s="34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="62" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="17">
-        <v>4</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="K12" s="34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="17">
-        <v>5</v>
-      </c>
-      <c r="B13" s="18" t="s">
+      <c r="E21" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="17">
-        <v>6</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="17">
-        <v>7</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="17">
-        <v>8</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A17" s="38">
-        <v>9</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="17">
-        <v>10</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="58" x14ac:dyDescent="0.35">
-      <c r="A19" s="17">
-        <v>11</v>
-      </c>
-      <c r="B19" s="18" t="s">
+      <c r="F21" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="18" t="s">
+      <c r="H21" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="K19" s="34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="17">
-        <v>12</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="34" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="17">
-        <v>13</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="34" t="s">
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="24" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:G3"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
@@ -1478,12 +1489,6 @@
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:G3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C10" r:id="rId1" location="Identifier"/>
@@ -1494,8 +1499,9 @@
     <hyperlink ref="C19" r:id="rId6" location="CodeableConcept" display="https://www.hl7.org/fhir/datatypes.html - CodeableConcept"/>
     <hyperlink ref="C20" r:id="rId7" location="HumanName"/>
     <hyperlink ref="C21" r:id="rId8" location="ContactPoint" display="https://www.hl7.org/fhir/datatypes.html - ContactPoint"/>
+    <hyperlink ref="J19" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>